--- a/any-data/extenal-resource/test-excel.xlsx
+++ b/any-data/extenal-resource/test-excel.xlsx
@@ -22,23 +22,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t xml:space="preserve">Штатное расписание</t>
   </si>
   <si>
-    <t xml:space="preserve">rootNode</t>
-  </si>
-  <si>
     <t xml:space="preserve">parenNode</t>
   </si>
   <si>
     <t xml:space="preserve">ТекУзел</t>
   </si>
   <si>
-    <t xml:space="preserve">Разработка</t>
-  </si>
-  <si>
     <t xml:space="preserve">java</t>
   </si>
   <si>
@@ -46,12 +40,6 @@
   </si>
   <si>
     <t xml:space="preserve">Мидл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стажер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработчик</t>
   </si>
   <si>
     <t xml:space="preserve">Управленцы</t>
@@ -70,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,6 +88,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,7 +145,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -162,6 +156,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -181,17 +179,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -202,7 +200,6 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -211,85 +208,45 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/any-data/extenal-resource/test-excel.xlsx
+++ b/any-data/extenal-resource/test-excel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t xml:space="preserve">Штатное расписание</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t xml:space="preserve">Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python</t>
   </si>
 </sst>
 </file>
@@ -94,6 +97,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,10 +183,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -247,6 +251,38 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/any-data/extenal-resource/test-excel.xlsx
+++ b/any-data/extenal-resource/test-excel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t xml:space="preserve">Штатное расписание</t>
   </si>
@@ -31,6 +31,18 @@
   </si>
   <si>
     <t xml:space="preserve">ТекУзел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebDeveloper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестировщики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Программисты</t>
   </si>
   <si>
     <t xml:space="preserve">java</t>
@@ -183,10 +195,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -214,7 +226,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -223,7 +235,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
@@ -231,60 +243,88 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/any-data/extenal-resource/test-excel.xlsx
+++ b/any-data/extenal-resource/test-excel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t xml:space="preserve">Штатное расписание</t>
   </si>
@@ -198,7 +198,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,33 +294,12 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/any-data/extenal-resource/test-excel.xlsx
+++ b/any-data/extenal-resource/test-excel.xlsx
@@ -30,7 +30,7 @@
     <t xml:space="preserve">parenNode</t>
   </si>
   <si>
-    <t xml:space="preserve">ТекУзел</t>
+    <t xml:space="preserve">subNode</t>
   </si>
   <si>
     <t xml:space="preserve">javascript</t>
@@ -198,7 +198,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/any-data/extenal-resource/test-excel.xlsx
+++ b/any-data/extenal-resource/test-excel.xlsx
@@ -48,7 +48,7 @@
     <t xml:space="preserve">java</t>
   </si>
   <si>
-    <t xml:space="preserve">Джюниор</t>
+    <t xml:space="preserve">Джуниор</t>
   </si>
   <si>
     <t xml:space="preserve">Мидл</t>
@@ -198,7 +198,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
